--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
@@ -3,24 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\web_ui_auto_testing\src\main\resources\resources\TestData\com\nonobank\apps\testcase\portal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>flag</t>
   </si>
@@ -44,9 +40,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>${RandomUtils.generateUserName()}</t>
   </si>
   <si>
     <t>it789123</t>
@@ -85,6 +78,14 @@
   </si>
   <si>
     <t>12345678910</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,12 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1351,7 +1353,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1395,20 +1397,20 @@
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.95" customHeight="1">
@@ -1416,22 +1418,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1">
@@ -1439,22 +1441,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1497,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>flag</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>password2</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>comments</t>
   </si>
   <si>
     <t>Y</t>
@@ -69,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>校验手机号码不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>校验手机号码格式错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,6 +76,46 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>####</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8888</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -110,6 +140,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,13 +190,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1350,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV4"/>
+  <dimension ref="A1:IY4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1363,13 +1403,14 @@
     <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="3" customWidth="1"/>
-    <col min="257" max="16384" width="8.875" style="2"/>
+    <col min="6" max="7" width="10.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="258" width="8.875" style="3" customWidth="1"/>
+    <col min="259" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1">
+    <row r="1" spans="1:259" ht="15.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,78 +1426,102 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:259" ht="15.95" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:259" ht="15.95" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:259" ht="15.95" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1496,10 +1561,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>####</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,16 +103,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8888</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -190,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -198,8 +190,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1392,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IY4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1453,17 +1444,17 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:259" ht="15.95" customHeight="1">
@@ -1482,11 +1473,11 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1511,11 +1502,11 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateMobileError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>flag</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>it789123</t>
   </si>
   <si>
     <t>yy</t>
@@ -109,6 +106,18 @@
   <si>
     <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1383,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IY4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1418,16 +1427,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:259" ht="15.95" customHeight="1">
@@ -1436,25 +1445,25 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:259" ht="15.95" customHeight="1">
@@ -1462,28 +1471,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:259" ht="15.95" customHeight="1">
@@ -1491,28 +1500,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1555,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
